--- a/tscvetaeva.xlsx
+++ b/tscvetaeva.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{'A'}, {'B'}, {'A': 2}, {'B': 2}]</t>
+          <t>[1, 2, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[{'A'}, {'A': 4}, {'C'}, {'C': 4}]</t>
+          <t>[1, 1, 2, 2]</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[{'A'}, {'B'}, {'A': 4}, {'B': 2}]</t>
+          <t>[1, 2, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[{'A'}, {'B'}, {'A': 4}, {'B': 3}]</t>
+          <t>[1, 2, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[{'A'}, {'A': 1}, {'C'}, {'B': 2}]</t>
+          <t>[None, 1, None, 1]</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[{'A'}, {'B'}, {'A': 3}, {'B': 1}]</t>
+          <t>[1, 2, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[{'A'}, {'B'}, {'A': 5}, {'B': 2}]</t>
+          <t>[1, 2, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[{'A'}, {'B'}, {'A': 7}, {'B': 2}]</t>
+          <t>[1, 2, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[{'A'}, {'B'}, {'C'}, {'B': 2}]</t>
+          <t>[None, 1, None, 1]</t>
         </is>
       </c>
     </row>
